--- a/biology/Botanique/Gynodioécie/Gynodioécie.xlsx
+++ b/biology/Botanique/Gynodioécie/Gynodioécie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gynodio%C3%A9cie</t>
+          <t>Gynodioécie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gynodioécie est, pour les espèces de plantes dites gynodioïques,  la coexistence de pieds à fleurs  hermaphrodites et de pieds à fleurs uniquement femelles.
-Elle est assez fréquente chez les Angiospermes, contrairement à l'androdiocéoie beaucoup plus rare[1].
+Elle est assez fréquente chez les Angiospermes, contrairement à l'androdiocéoie beaucoup plus rare.
 Elle est le plus souvent liée à un déterminisme nucléo-cytoplasmique du sexe.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gynodio%C3%A9cie</t>
+          <t>Gynodioécie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gynodioécie a été découverte par Charles Darwin et décrite dans son livre «Les différentes formes de fleurs sur les plantes de la même espèce» en 1877[2]. Carl Correns s'en est occupé. À la fin du 20e siècle car elle a fait l'objet de recherches intensives en lien avec la sélection végétale[3] la stérilité mâle cytoplasmique et le rôle des mitochondries[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gynodioécie a été découverte par Charles Darwin et décrite dans son livre «Les différentes formes de fleurs sur les plantes de la même espèce» en 1877. Carl Correns s'en est occupé. À la fin du 20e siècle car elle a fait l'objet de recherches intensives en lien avec la sélection végétale la stérilité mâle cytoplasmique et le rôle des mitochondries.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gynodio%C3%A9cie</t>
+          <t>Gynodioécie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gynodioécie est particulièrement fréquente dans les zones tempérées. Pour l'Europe, on estime qu'elle est deux fois plus fréquente que la diécie. Elle a été observée chez 223 espèces de 89 genres dans 25 familles. Ainsi, en Belgique, 7,5 % des espèces sont gynodioïques. Elle est moins fréquente dans la flore insulaire que les dioïques, et dans les forêts tropicales, où la diécie est commune, elle est pratiquement absente[réf. nécessaire].
 </t>
